--- a/out.xlsx
+++ b/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>testo</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>entità</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>entità rilevata</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>valido</t>
         </is>
@@ -453,80 +458,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2042158186_202205101630_3e16f9be-dfa1-4e40-a394-c085e684bd03_annotato_1.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>dopo il giorno 16 in poi se vuole io prendo l' appunt</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ha_fonti_reddito</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dovrebbe richiamare almeno domani</t>
+          <t>2042158188_202204041131_58903541-c5ee-47f6-8ce9-18c39eaa2482_annotato_0.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chiede_rimanda_appuntamento</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>le chiedo una cortesia se riesce di rami una mail con tutto quello che mi dice che così vado a vedere contabilmente</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>modulistica</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2042158188_202204041131_58903541-c5ee-47f6-8ce9-18c39eaa2482_annotato_0.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>le chiedo una cortesia se riesce di rami una mail con tutto quello che mi dice che così vado a vedere contabilmente</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>modulistica</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>richiesta_agevolazione</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>le chiedo una cortesia se riesce di rami una mail con tutto quello che mi dice che così vado a vedere contabilmente</t>
+          <t>2042158188_202205021233_b980aa86-8905-4292-8861-a0d1fa2e0d9b_annotato_0.txt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>richiesta_agevolazione</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>guardi il collega che si occupa delle dei bonifici per finanziari non è in ufficio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>reale_interlocutore</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2042158188_202205021233_b980aa86-8905-4292-8861-a0d1fa2e0d9b_annotato_0.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>guardi il collega che si occupa delle dei bonifici per finanziari non è in ufficio</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>reale_interlocutore</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>guardi il collega che si occupa delle dei bonifici per finanziari non è in ufficio</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>situazione_economica</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
